--- a/management/Dawuda_GanttChart310323.xlsx
+++ b/management/Dawuda_GanttChart310323.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adian\Desktop\PLUS\i3\Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B22735-EFE9-46C4-A10E-DE1F5ADE1EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB226DB8-4F29-4698-B39E-7322B6E4B8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1364,8 +1364,8 @@
       <c r="F16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>37</v>
+      <c r="G16" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -1406,8 +1406,8 @@
       <c r="F17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>37</v>
+      <c r="G17" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -1448,8 +1448,8 @@
       <c r="F18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>37</v>
+      <c r="G18" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
@@ -1637,8 +1637,8 @@
       <c r="F23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>37</v>
+      <c r="G23" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
@@ -1679,8 +1679,8 @@
       <c r="F24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="33" t="s">
-        <v>60</v>
+      <c r="G24" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
@@ -1721,8 +1721,8 @@
       <c r="F25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="33" t="s">
-        <v>60</v>
+      <c r="G25" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
@@ -1763,8 +1763,8 @@
       <c r="F26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="33" t="s">
-        <v>60</v>
+      <c r="G26" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
